--- a/sofaplayer/La_Liga/Osasuna_stats.xlsx
+++ b/sofaplayer/La_Liga/Osasuna_stats.xlsx
@@ -1035,16 +1035,16 @@
         <v>1145642</v>
       </c>
       <c r="E2" t="n">
-        <v>6.7260869565217</v>
+        <v>6.7</v>
       </c>
       <c r="F2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" t="n">
-        <v>1762</v>
+        <v>1829</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>2.9548</v>
+        <v>3.0244</v>
       </c>
       <c r="L2" t="n">
-        <v>440.5</v>
+        <v>457.25</v>
       </c>
       <c r="M2" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N2" t="n">
         <v>19</v>
@@ -1068,7 +1068,7 @@
         <v>3</v>
       </c>
       <c r="P2" t="n">
-        <v>8.695652173913</v>
+        <v>8.510638297872299</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>1</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.3292375</v>
+        <v>1.32969424</v>
       </c>
       <c r="AB2" t="n">
-        <v>852</v>
+        <v>877</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
@@ -1113,19 +1113,19 @@
         <v>14</v>
       </c>
       <c r="AE2" t="n">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="AF2" t="n">
-        <v>80.487804878049</v>
+        <v>80.428954423592</v>
       </c>
       <c r="AG2" t="n">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="AH2" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AJ2" t="n">
         <v>124</v>
@@ -1143,7 +1143,7 @@
         <v>15.151515151515</v>
       </c>
       <c r="AO2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP2" t="n">
         <v>17</v>
@@ -1152,16 +1152,16 @@
         <v>16</v>
       </c>
       <c r="AR2" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AS2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT2" t="n">
         <v>17</v>
       </c>
       <c r="AU2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>0</v>
       </c>
       <c r="AY2" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AZ2" t="n">
-        <v>42.148760330579</v>
+        <v>40.625</v>
       </c>
       <c r="BA2" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="BB2" t="n">
-        <v>39.483394833948</v>
+        <v>38.245614035088</v>
       </c>
       <c r="BC2" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="BD2" t="n">
-        <v>40.983606557377</v>
+        <v>39.53488372093</v>
       </c>
       <c r="BE2" t="n">
         <v>7</v>
@@ -1197,13 +1197,13 @@
         <v>25.925925925926</v>
       </c>
       <c r="BG2" t="n">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="BH2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BI2" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BJ2" t="n">
         <v>2</v>
@@ -1227,16 +1227,16 @@
         <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>154.7</v>
+        <v>160.8</v>
       </c>
       <c r="BR2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BS2" t="n">
         <v>5</v>
       </c>
       <c r="BT2" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
@@ -1254,13 +1254,13 @@
         <v>0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CA2" t="n">
         <v>15</v>
       </c>
       <c r="CB2" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="CC2" t="n">
         <v>12</v>
@@ -1311,13 +1311,13 @@
         <v>14</v>
       </c>
       <c r="CS2" t="n">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="CT2" t="n">
         <v>66</v>
       </c>
       <c r="CU2" t="n">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="CV2" t="n">
         <v>20</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="DG2" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>37318</v>
       </c>
       <c r="E3" t="n">
-        <v>6.9181818181818</v>
+        <v>6.9130434782609</v>
       </c>
       <c r="F3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" t="n">
-        <v>1711</v>
+        <v>1785</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
@@ -1409,13 +1409,13 @@
         <v>11</v>
       </c>
       <c r="K3" t="n">
-        <v>8.9171</v>
+        <v>9.042999999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>155.54545454545</v>
+        <v>162.27272727273</v>
       </c>
       <c r="M3" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N3" t="n">
         <v>23</v>
@@ -1424,7 +1424,7 @@
         <v>4</v>
       </c>
       <c r="P3" t="n">
-        <v>18.965517241379</v>
+        <v>18.64406779661</v>
       </c>
       <c r="Q3" t="n">
         <v>3</v>
@@ -1457,10 +1457,10 @@
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.77918605</v>
+        <v>0.78885266</v>
       </c>
       <c r="AB3" t="n">
-        <v>525</v>
+        <v>546</v>
       </c>
       <c r="AC3" t="n">
         <v>1</v>
@@ -1469,22 +1469,22 @@
         <v>8</v>
       </c>
       <c r="AE3" t="n">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="AF3" t="n">
-        <v>58.167330677291</v>
+        <v>59.003831417625</v>
       </c>
       <c r="AG3" t="n">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="AH3" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AI3" t="n">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="AJ3" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AK3" t="n">
         <v>3</v>
@@ -1514,10 +1514,10 @@
         <v>2</v>
       </c>
       <c r="AT3" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AU3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV3" t="n">
         <v>1</v>
@@ -1535,37 +1535,37 @@
         <v>25</v>
       </c>
       <c r="BA3" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="BB3" t="n">
-        <v>46.031746031746</v>
+        <v>46.692607003891</v>
       </c>
       <c r="BC3" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="BD3" t="n">
-        <v>39.805825242718</v>
+        <v>40.384615384615</v>
       </c>
       <c r="BE3" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="BF3" t="n">
-        <v>50.335570469799</v>
+        <v>50.980392156863</v>
       </c>
       <c r="BG3" t="n">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="BH3" t="n">
         <v>36</v>
       </c>
       <c r="BI3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BJ3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BK3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL3" t="n">
         <v>0</v>
@@ -1583,16 +1583,16 @@
         <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>152.2</v>
+        <v>159</v>
       </c>
       <c r="BR3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BS3" t="n">
         <v>11</v>
       </c>
       <c r="BT3" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="BU3" t="n">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="BZ3" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="CA3" t="n">
         <v>6</v>
@@ -1673,10 +1673,10 @@
         <v>2</v>
       </c>
       <c r="CU3" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="CV3" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="CW3" t="n">
         <v>0</v>
@@ -1706,16 +1706,16 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="DG3" t="n">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
       </c>
       <c r="DI3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="DJ3" t="n">
         <v>2156323</v>
@@ -1747,16 +1747,16 @@
         <v>997280</v>
       </c>
       <c r="E4" t="n">
-        <v>6.7545454545455</v>
+        <v>6.7347826086957</v>
       </c>
       <c r="F4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>691</v>
+        <v>707</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -1765,22 +1765,22 @@
         <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>3.8103</v>
+        <v>4.2914</v>
       </c>
       <c r="L4" t="n">
-        <v>172.75</v>
+        <v>176.75</v>
       </c>
       <c r="M4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P4" t="n">
-        <v>18.181818181818</v>
+        <v>17.391304347826</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.70274024</v>
+        <v>0.70561575</v>
       </c>
       <c r="AB4" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
@@ -1825,22 +1825,22 @@
         <v>5</v>
       </c>
       <c r="AE4" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AF4" t="n">
-        <v>70.394736842105</v>
+        <v>70.322580645161</v>
       </c>
       <c r="AG4" t="n">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="AH4" t="n">
         <v>40</v>
       </c>
       <c r="AI4" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AJ4" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AK4" t="n">
         <v>6</v>
@@ -1894,31 +1894,31 @@
         <v>59</v>
       </c>
       <c r="BB4" t="n">
-        <v>52.212389380531</v>
+        <v>51.304347826087</v>
       </c>
       <c r="BC4" t="n">
         <v>31</v>
       </c>
       <c r="BD4" t="n">
-        <v>50.819672131148</v>
+        <v>50</v>
       </c>
       <c r="BE4" t="n">
         <v>28</v>
       </c>
       <c r="BF4" t="n">
-        <v>53.846153846154</v>
+        <v>52.830188679245</v>
       </c>
       <c r="BG4" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BH4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BI4" t="n">
         <v>10</v>
       </c>
       <c r="BJ4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BK4" t="n">
         <v>1</v>
@@ -1939,16 +1939,16 @@
         <v>0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>148.6</v>
+        <v>154.9</v>
       </c>
       <c r="BR4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BS4" t="n">
         <v>4</v>
       </c>
       <c r="BT4" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BU4" t="n">
         <v>0</v>
@@ -1966,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="BZ4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CA4" t="n">
         <v>2</v>
@@ -1975,7 +1975,7 @@
         <v>13</v>
       </c>
       <c r="CC4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CD4" t="n">
         <v>7</v>
@@ -2029,10 +2029,10 @@
         <v>5</v>
       </c>
       <c r="CU4" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="CV4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CW4" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>47</v>
       </c>
       <c r="DG4" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
@@ -2815,16 +2815,16 @@
         <v>980383</v>
       </c>
       <c r="E7" t="n">
-        <v>6.75</v>
+        <v>6.6666666666667</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
         <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -2881,34 +2881,34 @@
         <v>1</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.470742</v>
+        <v>0.4898447</v>
       </c>
       <c r="AB7" t="n">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AF7" t="n">
-        <v>90.90909090909101</v>
+        <v>88</v>
       </c>
       <c r="AG7" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AH7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI7" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK7" t="n">
         <v>0</v>
@@ -2920,7 +2920,7 @@
         <v>3</v>
       </c>
       <c r="AN7" t="n">
-        <v>30</v>
+        <v>27.272727272727</v>
       </c>
       <c r="AO7" t="n">
         <v>0</v>
@@ -2932,7 +2932,7 @@
         <v>2</v>
       </c>
       <c r="AR7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AS7" t="n">
         <v>1</v>
@@ -2956,16 +2956,16 @@
         <v>3</v>
       </c>
       <c r="AZ7" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="BA7" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>46.153846153846</v>
+      </c>
+      <c r="BC7" t="n">
         <v>5</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>45.454545454545</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>4</v>
       </c>
       <c r="BD7" t="n">
         <v>50</v>
@@ -2977,16 +2977,16 @@
         <v>33.333333333333</v>
       </c>
       <c r="BG7" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="BH7" t="n">
         <v>0</v>
       </c>
       <c r="BI7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BK7" t="n">
         <v>0</v>
@@ -3007,44 +3007,44 @@
         <v>0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>13.5</v>
+        <v>20</v>
       </c>
       <c r="BR7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BS7" t="n">
         <v>1</v>
       </c>
       <c r="BT7" t="n">
+        <v>6</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>2</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC7" t="n">
         <v>4</v>
       </c>
-      <c r="BU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ7" t="n">
-        <v>2</v>
-      </c>
-      <c r="CA7" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB7" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC7" t="n">
-        <v>3</v>
-      </c>
       <c r="CD7" t="n">
         <v>2</v>
       </c>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="CR7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CS7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CT7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CU7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CV7" t="n">
         <v>2</v>
@@ -3130,10 +3130,10 @@
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="DG7" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="DH7" t="n">
         <v>0</v>
@@ -3171,16 +3171,16 @@
         <v>985329</v>
       </c>
       <c r="E8" t="n">
-        <v>6.8588235294118</v>
+        <v>6.8888888888889</v>
       </c>
       <c r="F8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H8" t="n">
-        <v>1238</v>
+        <v>1328</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -3189,16 +3189,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9179</v>
+        <v>0.9847</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -3237,58 +3237,58 @@
         <v>2</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.589828</v>
+        <v>2.001684</v>
       </c>
       <c r="AB8" t="n">
-        <v>771</v>
+        <v>828</v>
       </c>
       <c r="AC8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE8" t="n">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="AF8" t="n">
-        <v>79.116465863454</v>
+        <v>78.19548872180501</v>
       </c>
       <c r="AG8" t="n">
-        <v>498</v>
+        <v>532</v>
       </c>
       <c r="AH8" t="n">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AI8" t="n">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="AJ8" t="n">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AK8" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AL8" t="n">
-        <v>64.28571428571399</v>
+        <v>66.666666666667</v>
       </c>
       <c r="AM8" t="n">
         <v>5</v>
       </c>
       <c r="AN8" t="n">
-        <v>33.333333333333</v>
+        <v>31.25</v>
       </c>
       <c r="AO8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AP8" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="AQ8" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AR8" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AS8" t="n">
         <v>8</v>
@@ -3309,22 +3309,22 @@
         <v>0</v>
       </c>
       <c r="AY8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ8" t="n">
-        <v>45.945945945946</v>
+        <v>47.5</v>
       </c>
       <c r="BA8" t="n">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="BB8" t="n">
-        <v>49.72972972973</v>
+        <v>51.010101010101</v>
       </c>
       <c r="BC8" t="n">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="BD8" t="n">
-        <v>51.333333333333</v>
+        <v>52.760736196319</v>
       </c>
       <c r="BE8" t="n">
         <v>15</v>
@@ -3333,13 +3333,13 @@
         <v>42.857142857143</v>
       </c>
       <c r="BG8" t="n">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="BH8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BI8" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="BJ8" t="n">
         <v>1</v>
@@ -3354,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="BN8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO8" t="n">
         <v>14</v>
@@ -3363,22 +3363,22 @@
         <v>0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>116.6</v>
+        <v>124</v>
       </c>
       <c r="BR8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS8" t="n">
         <v>2</v>
       </c>
       <c r="BT8" t="n">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="BU8" t="n">
         <v>0</v>
       </c>
       <c r="BV8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BW8" t="n">
         <v>0</v>
@@ -3390,19 +3390,19 @@
         <v>2</v>
       </c>
       <c r="BZ8" t="n">
+        <v>10</v>
+      </c>
+      <c r="CA8" t="n">
         <v>9</v>
       </c>
-      <c r="CA8" t="n">
-        <v>8</v>
-      </c>
       <c r="CB8" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="CC8" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="CD8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="CE8" t="n">
         <v>0</v>
@@ -3444,16 +3444,16 @@
         <v>0</v>
       </c>
       <c r="CR8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="CS8" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="CT8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CU8" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="CV8" t="n">
         <v>20</v>
@@ -3468,13 +3468,13 @@
         <v>0</v>
       </c>
       <c r="CZ8" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="DA8" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="DB8" t="n">
-        <v>56</v>
+        <v>51.612903225806</v>
       </c>
       <c r="DC8" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="DG8" t="n">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="DH8" t="n">
         <v>0</v>
@@ -3527,16 +3527,16 @@
         <v>260031</v>
       </c>
       <c r="E9" t="n">
-        <v>6.8904761904762</v>
+        <v>6.8772727272727</v>
       </c>
       <c r="F9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H9" t="n">
-        <v>1272</v>
+        <v>1357</v>
       </c>
       <c r="I9" t="n">
         <v>2</v>
@@ -3548,7 +3548,7 @@
         <v>1.3623</v>
       </c>
       <c r="L9" t="n">
-        <v>636</v>
+        <v>678.5</v>
       </c>
       <c r="M9" t="n">
         <v>19</v>
@@ -3593,10 +3593,10 @@
         <v>5</v>
       </c>
       <c r="AA9" t="n">
-        <v>3.54111795</v>
+        <v>3.55436535</v>
       </c>
       <c r="AB9" t="n">
-        <v>770</v>
+        <v>813</v>
       </c>
       <c r="AC9" t="n">
         <v>7</v>
@@ -3605,52 +3605,52 @@
         <v>26</v>
       </c>
       <c r="AE9" t="n">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="AF9" t="n">
-        <v>78.585858585859</v>
+        <v>78.336557059961</v>
       </c>
       <c r="AG9" t="n">
-        <v>495</v>
+        <v>517</v>
       </c>
       <c r="AH9" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AI9" t="n">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="AJ9" t="n">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AK9" t="n">
         <v>24</v>
       </c>
       <c r="AL9" t="n">
-        <v>52.173913043478</v>
+        <v>48.979591836735</v>
       </c>
       <c r="AM9" t="n">
         <v>35</v>
       </c>
       <c r="AN9" t="n">
-        <v>41.176470588235</v>
+        <v>38.04347826087</v>
       </c>
       <c r="AO9" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AP9" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AQ9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AR9" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="AS9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU9" t="n">
         <v>6</v>
@@ -3671,37 +3671,37 @@
         <v>36.842105263158</v>
       </c>
       <c r="BA9" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="BB9" t="n">
-        <v>44.512195121951</v>
+        <v>44.886363636364</v>
       </c>
       <c r="BC9" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="BD9" t="n">
-        <v>48.333333333333</v>
+        <v>48.854961832061</v>
       </c>
       <c r="BE9" t="n">
         <v>15</v>
       </c>
       <c r="BF9" t="n">
-        <v>34.090909090909</v>
+        <v>33.333333333333</v>
       </c>
       <c r="BG9" t="n">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="BH9" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="BI9" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="BJ9" t="n">
         <v>1</v>
       </c>
       <c r="BK9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BL9" t="n">
         <v>0</v>
@@ -3719,16 +3719,16 @@
         <v>0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>144.7</v>
+        <v>151.3</v>
       </c>
       <c r="BR9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS9" t="n">
         <v>7</v>
       </c>
       <c r="BT9" t="n">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="BU9" t="n">
         <v>0</v>
@@ -3755,10 +3755,10 @@
         <v>14</v>
       </c>
       <c r="CC9" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="CD9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CE9" t="n">
         <v>0</v>
@@ -3806,13 +3806,13 @@
         <v>19</v>
       </c>
       <c r="CT9" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="CU9" t="n">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="CV9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="CW9" t="n">
         <v>0</v>
@@ -3824,13 +3824,13 @@
         <v>0</v>
       </c>
       <c r="CZ9" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="DA9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="DB9" t="n">
-        <v>50</v>
+        <v>52.777777777778</v>
       </c>
       <c r="DC9" t="n">
         <v>0</v>
@@ -3842,10 +3842,10 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="DG9" t="n">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="DH9" t="n">
         <v>0</v>
@@ -3883,16 +3883,16 @@
         <v>187313</v>
       </c>
       <c r="E10" t="n">
-        <v>6.76</v>
+        <v>6.7666666666667</v>
       </c>
       <c r="F10" t="n">
+        <v>22</v>
+      </c>
+      <c r="G10" t="n">
         <v>21</v>
       </c>
-      <c r="G10" t="n">
-        <v>20</v>
-      </c>
       <c r="H10" t="n">
-        <v>1509</v>
+        <v>1575</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -3949,40 +3949,40 @@
         <v>1</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.59310085</v>
+        <v>0.60239037</v>
       </c>
       <c r="AB10" t="n">
-        <v>876</v>
+        <v>900</v>
       </c>
       <c r="AC10" t="n">
         <v>1</v>
       </c>
       <c r="AD10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE10" t="n">
-        <v>503</v>
+        <v>520</v>
       </c>
       <c r="AF10" t="n">
-        <v>74.518518518519</v>
+        <v>74.92795389049</v>
       </c>
       <c r="AG10" t="n">
-        <v>675</v>
+        <v>694</v>
       </c>
       <c r="AH10" t="n">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="AI10" t="n">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="AJ10" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AK10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL10" t="n">
-        <v>39.130434782609</v>
+        <v>39.43661971831</v>
       </c>
       <c r="AM10" t="n">
         <v>0</v>
@@ -3991,22 +3991,22 @@
         <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ10" t="n">
         <v>3</v>
       </c>
       <c r="AR10" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AS10" t="n">
         <v>9</v>
       </c>
       <c r="AT10" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AU10" t="n">
         <v>2</v>
@@ -4027,37 +4027,37 @@
         <v>66.666666666667</v>
       </c>
       <c r="BA10" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="BB10" t="n">
-        <v>66.847826086957</v>
+        <v>66.48936170212799</v>
       </c>
       <c r="BC10" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="BD10" t="n">
-        <v>55.172413793103</v>
+        <v>55.555555555556</v>
       </c>
       <c r="BE10" t="n">
         <v>75</v>
       </c>
       <c r="BF10" t="n">
-        <v>77.319587628866</v>
+        <v>76.53061224489799</v>
       </c>
       <c r="BG10" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="BH10" t="n">
+        <v>24</v>
+      </c>
+      <c r="BI10" t="n">
         <v>23</v>
       </c>
-      <c r="BI10" t="n">
-        <v>22</v>
-      </c>
       <c r="BJ10" t="n">
         <v>0</v>
       </c>
       <c r="BK10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BL10" t="n">
         <v>0</v>
@@ -4075,16 +4075,16 @@
         <v>0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>135.2</v>
+        <v>142.1</v>
       </c>
       <c r="BR10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS10" t="n">
         <v>1</v>
       </c>
       <c r="BT10" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BU10" t="n">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>7</v>
       </c>
       <c r="CC10" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="CD10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CE10" t="n">
         <v>0</v>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="CR10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CS10" t="n">
         <v>9</v>
@@ -4165,10 +4165,10 @@
         <v>1</v>
       </c>
       <c r="CU10" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="CV10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="CW10" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="DA10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="DB10" t="n">
-        <v>45.454545454545</v>
+        <v>47.826086956522</v>
       </c>
       <c r="DC10" t="n">
         <v>0</v>
@@ -4198,10 +4198,10 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="DG10" t="n">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
@@ -4239,16 +4239,16 @@
         <v>976141</v>
       </c>
       <c r="E11" t="n">
-        <v>6.9380952380952</v>
+        <v>6.9227272727273</v>
       </c>
       <c r="F11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>21</v>
       </c>
       <c r="H11" t="n">
-        <v>1823</v>
+        <v>1847</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -4305,10 +4305,10 @@
         <v>4</v>
       </c>
       <c r="AA11" t="n">
-        <v>2.268496</v>
+        <v>2.26904684</v>
       </c>
       <c r="AB11" t="n">
-        <v>1277</v>
+        <v>1282</v>
       </c>
       <c r="AC11" t="n">
         <v>7</v>
@@ -4317,19 +4317,19 @@
         <v>26</v>
       </c>
       <c r="AE11" t="n">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="AF11" t="n">
-        <v>78.89502762430899</v>
+        <v>78.987898789879</v>
       </c>
       <c r="AG11" t="n">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="AH11" t="n">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AI11" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AJ11" t="n">
         <v>201</v>
@@ -4350,13 +4350,13 @@
         <v>15</v>
       </c>
       <c r="AP11" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AQ11" t="n">
         <v>9</v>
       </c>
       <c r="AR11" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AS11" t="n">
         <v>31</v>
@@ -4383,16 +4383,16 @@
         <v>66.666666666667</v>
       </c>
       <c r="BA11" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BB11" t="n">
-        <v>44.927536231884</v>
+        <v>45</v>
       </c>
       <c r="BC11" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="BD11" t="n">
-        <v>42.477876106195</v>
+        <v>42.608695652174</v>
       </c>
       <c r="BE11" t="n">
         <v>14</v>
@@ -4404,7 +4404,7 @@
         <v>320</v>
       </c>
       <c r="BH11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BI11" t="n">
         <v>8</v>
@@ -4431,10 +4431,10 @@
         <v>0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>145.7</v>
+        <v>152.3</v>
       </c>
       <c r="BR11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS11" t="n">
         <v>4</v>
@@ -4521,7 +4521,7 @@
         <v>84</v>
       </c>
       <c r="CU11" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="CV11" t="n">
         <v>11</v>
@@ -4542,7 +4542,7 @@
         <v>17</v>
       </c>
       <c r="DB11" t="n">
-        <v>54.838709677419</v>
+        <v>53.125</v>
       </c>
       <c r="DC11" t="n">
         <v>0</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="DG11" t="n">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="DH11" t="n">
         <v>0</v>
@@ -4951,16 +4951,16 @@
         <v>1119586</v>
       </c>
       <c r="E13" t="n">
-        <v>6.5777777777778</v>
+        <v>6.59</v>
       </c>
       <c r="F13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H13" t="n">
-        <v>454</v>
+        <v>520</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -5017,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.08914631000000001</v>
+        <v>0.10852541</v>
       </c>
       <c r="AB13" t="n">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -5029,28 +5029,28 @@
         <v>1</v>
       </c>
       <c r="AE13" t="n">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="AF13" t="n">
-        <v>87.373737373737</v>
+        <v>85</v>
       </c>
       <c r="AG13" t="n">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="AH13" t="n">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="AI13" t="n">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AJ13" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AK13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL13" t="n">
-        <v>64.28571428571399</v>
+        <v>62.5</v>
       </c>
       <c r="AM13" t="n">
         <v>0</v>
@@ -5068,13 +5068,13 @@
         <v>2</v>
       </c>
       <c r="AR13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS13" t="n">
         <v>8</v>
       </c>
       <c r="AT13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU13" t="n">
         <v>1</v>
@@ -5089,22 +5089,22 @@
         <v>0</v>
       </c>
       <c r="AY13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ13" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="BA13" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BB13" t="n">
-        <v>37.037037037037</v>
+        <v>38.59649122807</v>
       </c>
       <c r="BC13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BD13" t="n">
-        <v>37.5</v>
+        <v>39.53488372093</v>
       </c>
       <c r="BE13" t="n">
         <v>5</v>
@@ -5113,13 +5113,13 @@
         <v>35.714285714286</v>
       </c>
       <c r="BG13" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="BH13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BI13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BJ13" t="n">
         <v>1</v>
@@ -5143,16 +5143,16 @@
         <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>59.2</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="BR13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BS13" t="n">
         <v>0</v>
       </c>
       <c r="BT13" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="BU13" t="n">
         <v>0</v>
@@ -5179,7 +5179,7 @@
         <v>2</v>
       </c>
       <c r="CC13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="CD13" t="n">
         <v>7</v>
@@ -5227,13 +5227,13 @@
         <v>1</v>
       </c>
       <c r="CS13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CT13" t="n">
         <v>1</v>
       </c>
       <c r="CU13" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="CV13" t="n">
         <v>9</v>
@@ -5248,7 +5248,7 @@
         <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="DA13" t="n">
         <v>4</v>
@@ -5266,10 +5266,10 @@
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="DG13" t="n">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="DH13" t="n">
         <v>0</v>
@@ -5307,16 +5307,16 @@
         <v>1399702</v>
       </c>
       <c r="E14" t="n">
-        <v>6.7</v>
+        <v>6.6375</v>
       </c>
       <c r="F14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -5328,7 +5328,7 @@
         <v>0.428</v>
       </c>
       <c r="L14" t="n">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
@@ -5373,10 +5373,10 @@
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.08753635999999999</v>
+        <v>0.08948676999999999</v>
       </c>
       <c r="AB14" t="n">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -5385,28 +5385,28 @@
         <v>2</v>
       </c>
       <c r="AE14" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AF14" t="n">
-        <v>77.777777777778</v>
+        <v>75.806451612903</v>
       </c>
       <c r="AG14" t="n">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="AH14" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AI14" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AJ14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL14" t="n">
-        <v>33.333333333333</v>
+        <v>35.714285714286</v>
       </c>
       <c r="AM14" t="n">
         <v>0</v>
@@ -5427,10 +5427,10 @@
         <v>9</v>
       </c>
       <c r="AS14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -5454,13 +5454,13 @@
         <v>17</v>
       </c>
       <c r="BB14" t="n">
-        <v>47.222222222222</v>
+        <v>43.589743589744</v>
       </c>
       <c r="BC14" t="n">
         <v>5</v>
       </c>
       <c r="BD14" t="n">
-        <v>27.777777777778</v>
+        <v>23.809523809524</v>
       </c>
       <c r="BE14" t="n">
         <v>12</v>
@@ -5469,10 +5469,10 @@
         <v>66.666666666667</v>
       </c>
       <c r="BG14" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="BH14" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BI14" t="n">
         <v>0</v>
@@ -5481,7 +5481,7 @@
         <v>0</v>
       </c>
       <c r="BK14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL14" t="n">
         <v>0</v>
@@ -5499,16 +5499,16 @@
         <v>0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>46.9</v>
+        <v>53.1</v>
       </c>
       <c r="BR14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BS14" t="n">
         <v>1</v>
       </c>
       <c r="BT14" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="BU14" t="n">
         <v>0</v>
@@ -5589,7 +5589,7 @@
         <v>3</v>
       </c>
       <c r="CU14" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="CV14" t="n">
         <v>6</v>
@@ -5604,7 +5604,7 @@
         <v>0</v>
       </c>
       <c r="CZ14" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="DA14" t="n">
         <v>2</v>
@@ -5622,10 +5622,10 @@
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="DG14" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="DH14" t="n">
         <v>0</v>
@@ -6019,16 +6019,16 @@
         <v>825133</v>
       </c>
       <c r="E16" t="n">
-        <v>6.8272727272727</v>
+        <v>6.9</v>
       </c>
       <c r="F16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H16" t="n">
-        <v>671</v>
+        <v>761</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -6085,10 +6085,10 @@
         <v>1</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.19672901</v>
+        <v>1.20228514</v>
       </c>
       <c r="AB16" t="n">
-        <v>533</v>
+        <v>600</v>
       </c>
       <c r="AC16" t="n">
         <v>1</v>
@@ -6097,28 +6097,28 @@
         <v>14</v>
       </c>
       <c r="AE16" t="n">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="AF16" t="n">
-        <v>84.668989547038</v>
+        <v>84.16149068323</v>
       </c>
       <c r="AG16" t="n">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="AH16" t="n">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="AI16" t="n">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="AJ16" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="AK16" t="n">
         <v>8</v>
       </c>
       <c r="AL16" t="n">
-        <v>40</v>
+        <v>34.782608695652</v>
       </c>
       <c r="AM16" t="n">
         <v>12</v>
@@ -6127,22 +6127,22 @@
         <v>42.857142857143</v>
       </c>
       <c r="AO16" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AP16" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AQ16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR16" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AS16" t="n">
         <v>5</v>
       </c>
       <c r="AT16" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -6163,16 +6163,16 @@
         <v>62.068965517241</v>
       </c>
       <c r="BA16" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="BB16" t="n">
-        <v>61.165048543689</v>
+        <v>62.5</v>
       </c>
       <c r="BC16" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="BD16" t="n">
-        <v>65.47619047619</v>
+        <v>66.666666666667</v>
       </c>
       <c r="BE16" t="n">
         <v>8</v>
@@ -6181,13 +6181,13 @@
         <v>42.105263157895</v>
       </c>
       <c r="BG16" t="n">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="BH16" t="n">
         <v>10</v>
       </c>
       <c r="BI16" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BJ16" t="n">
         <v>2</v>
@@ -6202,7 +6202,7 @@
         <v>0</v>
       </c>
       <c r="BN16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO16" t="n">
         <v>10</v>
@@ -6211,16 +6211,16 @@
         <v>0</v>
       </c>
       <c r="BQ16" t="n">
-        <v>75.09999999999999</v>
+        <v>82.8</v>
       </c>
       <c r="BR16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BS16" t="n">
         <v>1</v>
       </c>
       <c r="BT16" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="BU16" t="n">
         <v>0</v>
@@ -6244,10 +6244,10 @@
         <v>0</v>
       </c>
       <c r="CB16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CC16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CD16" t="n">
         <v>11</v>
@@ -6301,7 +6301,7 @@
         <v>28</v>
       </c>
       <c r="CU16" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="CV16" t="n">
         <v>11</v>
@@ -6316,13 +6316,13 @@
         <v>0</v>
       </c>
       <c r="CZ16" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="DA16" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="DB16" t="n">
-        <v>66.666666666667</v>
+        <v>64</v>
       </c>
       <c r="DC16" t="n">
         <v>0</v>
@@ -6334,16 +6334,16 @@
         <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="DG16" t="n">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="DH16" t="n">
         <v>0</v>
       </c>
       <c r="DI16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ16" t="n">
         <v>2165850</v>
@@ -6375,16 +6375,16 @@
         <v>900792</v>
       </c>
       <c r="E17" t="n">
-        <v>6.952380952381</v>
+        <v>6.9545454545455</v>
       </c>
       <c r="F17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H17" t="n">
-        <v>1845</v>
+        <v>1935</v>
       </c>
       <c r="I17" t="n">
         <v>3</v>
@@ -6396,7 +6396,7 @@
         <v>1.7801</v>
       </c>
       <c r="L17" t="n">
-        <v>922.5</v>
+        <v>967.5</v>
       </c>
       <c r="M17" t="n">
         <v>12</v>
@@ -6441,10 +6441,10 @@
         <v>2</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.9177681</v>
+        <v>0.91919068</v>
       </c>
       <c r="AB17" t="n">
-        <v>1263</v>
+        <v>1299</v>
       </c>
       <c r="AC17" t="n">
         <v>1</v>
@@ -6453,28 +6453,28 @@
         <v>9</v>
       </c>
       <c r="AE17" t="n">
-        <v>848</v>
+        <v>864</v>
       </c>
       <c r="AF17" t="n">
-        <v>84.96993987976001</v>
+        <v>84.54011741683</v>
       </c>
       <c r="AG17" t="n">
-        <v>998</v>
+        <v>1022</v>
       </c>
       <c r="AH17" t="n">
-        <v>613</v>
+        <v>626</v>
       </c>
       <c r="AI17" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AJ17" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK17" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AL17" t="n">
-        <v>53.459119496855</v>
+        <v>52.07100591716</v>
       </c>
       <c r="AM17" t="n">
         <v>0</v>
@@ -6483,22 +6483,22 @@
         <v>0</v>
       </c>
       <c r="AO17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP17" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AQ17" t="n">
         <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AS17" t="n">
         <v>4</v>
       </c>
       <c r="AT17" t="n">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AU17" t="n">
         <v>3</v>
@@ -6519,25 +6519,25 @@
         <v>60</v>
       </c>
       <c r="BA17" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="BB17" t="n">
-        <v>53.703703703704</v>
+        <v>53.892215568862</v>
       </c>
       <c r="BC17" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BD17" t="n">
-        <v>47.945205479452</v>
+        <v>49.333333333333</v>
       </c>
       <c r="BE17" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BF17" t="n">
-        <v>58.426966292135</v>
+        <v>57.608695652174</v>
       </c>
       <c r="BG17" t="n">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="BH17" t="n">
         <v>32</v>
@@ -6558,7 +6558,7 @@
         <v>0</v>
       </c>
       <c r="BN17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BO17" t="n">
         <v>24</v>
@@ -6567,16 +6567,16 @@
         <v>0</v>
       </c>
       <c r="BQ17" t="n">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="BR17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS17" t="n">
         <v>4</v>
       </c>
       <c r="BT17" t="n">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="BU17" t="n">
         <v>1</v>
@@ -6603,10 +6603,10 @@
         <v>2</v>
       </c>
       <c r="CC17" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="CD17" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="CE17" t="n">
         <v>0</v>
@@ -6657,10 +6657,10 @@
         <v>2</v>
       </c>
       <c r="CU17" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="CV17" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="CW17" t="n">
         <v>0</v>
@@ -6672,13 +6672,13 @@
         <v>0</v>
       </c>
       <c r="CZ17" t="n">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="DA17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="DB17" t="n">
-        <v>87.5</v>
+        <v>84.615384615385</v>
       </c>
       <c r="DC17" t="n">
         <v>0</v>
@@ -6690,16 +6690,16 @@
         <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="DG17" t="n">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="DH17" t="n">
         <v>6</v>
       </c>
       <c r="DI17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="DJ17" t="n">
         <v>2156289</v>
@@ -6731,133 +6731,133 @@
         <v>842419</v>
       </c>
       <c r="E18" t="n">
-        <v>6.60625</v>
+        <v>6.6176470588235</v>
       </c>
       <c r="F18" t="n">
+        <v>17</v>
+      </c>
+      <c r="G18" t="n">
         <v>16</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
+        <v>1313</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1331</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1.09433823</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>878</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>420</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>78.212290502793</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>537</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>204</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>216</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>94</v>
+      </c>
+      <c r="AK18" t="n">
         <v>15</v>
       </c>
-      <c r="H18" t="n">
-        <v>1223</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.08749999999999999</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>3</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0.95393523</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>834</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>402</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>78.362573099415</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>513</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>195</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>207</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>91</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>12</v>
-      </c>
       <c r="AL18" t="n">
-        <v>20.338983050847</v>
+        <v>23.4375</v>
       </c>
       <c r="AM18" t="n">
         <v>5</v>
       </c>
       <c r="AN18" t="n">
-        <v>20.833333333333</v>
+        <v>20</v>
       </c>
       <c r="AO18" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AP18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ18" t="n">
         <v>3</v>
       </c>
       <c r="AR18" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AS18" t="n">
         <v>11</v>
       </c>
       <c r="AT18" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AU18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV18" t="n">
         <v>0</v>
@@ -6869,34 +6869,34 @@
         <v>0</v>
       </c>
       <c r="AY18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ18" t="n">
-        <v>45.454545454545</v>
+        <v>47.826086956522</v>
       </c>
       <c r="BA18" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="BB18" t="n">
-        <v>47.413793103448</v>
+        <v>46.72131147541</v>
       </c>
       <c r="BC18" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BD18" t="n">
-        <v>43.877551020408</v>
+        <v>43.68932038835</v>
       </c>
       <c r="BE18" t="n">
         <v>12</v>
       </c>
       <c r="BF18" t="n">
-        <v>66.666666666667</v>
+        <v>63.157894736842</v>
       </c>
       <c r="BG18" t="n">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="BH18" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BI18" t="n">
         <v>10</v>
@@ -6914,7 +6914,7 @@
         <v>0</v>
       </c>
       <c r="BN18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BO18" t="n">
         <v>15</v>
@@ -6923,16 +6923,16 @@
         <v>0</v>
       </c>
       <c r="BQ18" t="n">
-        <v>105.7</v>
+        <v>112.5</v>
       </c>
       <c r="BR18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS18" t="n">
         <v>1</v>
       </c>
       <c r="BT18" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="BU18" t="n">
         <v>0</v>
@@ -6953,16 +6953,16 @@
         <v>2</v>
       </c>
       <c r="CA18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CB18" t="n">
         <v>15</v>
       </c>
       <c r="CC18" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="CD18" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="CE18" t="n">
         <v>0</v>
@@ -7004,20 +7004,20 @@
         <v>0</v>
       </c>
       <c r="CR18" t="n">
+        <v>8</v>
+      </c>
+      <c r="CS18" t="n">
+        <v>23</v>
+      </c>
+      <c r="CT18" t="n">
+        <v>25</v>
+      </c>
+      <c r="CU18" t="n">
+        <v>65</v>
+      </c>
+      <c r="CV18" t="n">
         <v>7</v>
       </c>
-      <c r="CS18" t="n">
-        <v>22</v>
-      </c>
-      <c r="CT18" t="n">
-        <v>24</v>
-      </c>
-      <c r="CU18" t="n">
-        <v>61</v>
-      </c>
-      <c r="CV18" t="n">
-        <v>6</v>
-      </c>
       <c r="CW18" t="n">
         <v>0</v>
       </c>
@@ -7028,13 +7028,13 @@
         <v>0</v>
       </c>
       <c r="CZ18" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="DA18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="DB18" t="n">
-        <v>69.565217391304</v>
+        <v>70.833333333333</v>
       </c>
       <c r="DC18" t="n">
         <v>1</v>
@@ -7046,10 +7046,10 @@
         <v>0</v>
       </c>
       <c r="DF18" t="n">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="DG18" t="n">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="DH18" t="n">
         <v>0</v>
@@ -7087,16 +7087,16 @@
         <v>1010165</v>
       </c>
       <c r="E19" t="n">
-        <v>6.8157894736842</v>
+        <v>6.815</v>
       </c>
       <c r="F19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G19" t="n">
         <v>15</v>
       </c>
       <c r="H19" t="n">
-        <v>1387</v>
+        <v>1397</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
@@ -7108,7 +7108,7 @@
         <v>0.6348</v>
       </c>
       <c r="L19" t="n">
-        <v>1387</v>
+        <v>1397</v>
       </c>
       <c r="M19" t="n">
         <v>11</v>
@@ -7153,10 +7153,10 @@
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.74199359</v>
+        <v>0.86087359</v>
       </c>
       <c r="AB19" t="n">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -7165,22 +7165,22 @@
         <v>9</v>
       </c>
       <c r="AE19" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF19" t="n">
-        <v>76.28361858190701</v>
+        <v>76.34146341463401</v>
       </c>
       <c r="AG19" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AH19" t="n">
         <v>125</v>
       </c>
       <c r="AI19" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AJ19" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK19" t="n">
         <v>21</v>
@@ -7192,7 +7192,7 @@
         <v>8</v>
       </c>
       <c r="AN19" t="n">
-        <v>34.782608695652</v>
+        <v>33.333333333333</v>
       </c>
       <c r="AO19" t="n">
         <v>15</v>
@@ -7249,7 +7249,7 @@
         <v>64.705882352941</v>
       </c>
       <c r="BG19" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="BH19" t="n">
         <v>13</v>
@@ -7279,10 +7279,10 @@
         <v>0</v>
       </c>
       <c r="BQ19" t="n">
-        <v>129.5</v>
+        <v>136.3</v>
       </c>
       <c r="BR19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS19" t="n">
         <v>1</v>
@@ -7315,10 +7315,10 @@
         <v>10</v>
       </c>
       <c r="CC19" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="CD19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CE19" t="n">
         <v>0</v>
@@ -7366,7 +7366,7 @@
         <v>25</v>
       </c>
       <c r="CT19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="CU19" t="n">
         <v>56</v>
@@ -7405,7 +7405,7 @@
         <v>159</v>
       </c>
       <c r="DG19" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="DH19" t="n">
         <v>0</v>
@@ -7443,16 +7443,16 @@
         <v>944225</v>
       </c>
       <c r="E20" t="n">
-        <v>6.6777777777778</v>
+        <v>6.6842105263158</v>
       </c>
       <c r="F20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H20" t="n">
-        <v>1029</v>
+        <v>1119</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -7509,10 +7509,10 @@
         <v>1</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.77684462</v>
+        <v>0.7771048</v>
       </c>
       <c r="AB20" t="n">
-        <v>577</v>
+        <v>609</v>
       </c>
       <c r="AC20" t="n">
         <v>1</v>
@@ -7521,19 +7521,19 @@
         <v>2</v>
       </c>
       <c r="AE20" t="n">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="AF20" t="n">
-        <v>85.04901960784299</v>
+        <v>83.962264150943</v>
       </c>
       <c r="AG20" t="n">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="AH20" t="n">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="AI20" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AJ20" t="n">
         <v>20</v>
@@ -7542,7 +7542,7 @@
         <v>19</v>
       </c>
       <c r="AL20" t="n">
-        <v>42.222222222222</v>
+        <v>41.304347826087</v>
       </c>
       <c r="AM20" t="n">
         <v>0</v>
@@ -7551,10 +7551,10 @@
         <v>0</v>
       </c>
       <c r="AO20" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ20" t="n">
         <v>0</v>
@@ -7566,7 +7566,7 @@
         <v>8</v>
       </c>
       <c r="AT20" t="n">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AU20" t="n">
         <v>2</v>
@@ -7587,28 +7587,28 @@
         <v>100</v>
       </c>
       <c r="BA20" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="BB20" t="n">
-        <v>55.813953488372</v>
+        <v>55.31914893617</v>
       </c>
       <c r="BC20" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BD20" t="n">
-        <v>55.357142857143</v>
+        <v>54.237288135593</v>
       </c>
       <c r="BE20" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BF20" t="n">
-        <v>56.666666666667</v>
+        <v>57.142857142857</v>
       </c>
       <c r="BG20" t="n">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="BH20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BI20" t="n">
         <v>6</v>
@@ -7626,7 +7626,7 @@
         <v>0</v>
       </c>
       <c r="BN20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO20" t="n">
         <v>18</v>
@@ -7635,16 +7635,16 @@
         <v>0</v>
       </c>
       <c r="BQ20" t="n">
-        <v>120.2</v>
+        <v>127</v>
       </c>
       <c r="BR20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS20" t="n">
         <v>1</v>
       </c>
       <c r="BT20" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="BU20" t="n">
         <v>0</v>
@@ -7671,7 +7671,7 @@
         <v>1</v>
       </c>
       <c r="CC20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="CD20" t="n">
         <v>11</v>
@@ -7725,10 +7725,10 @@
         <v>1</v>
       </c>
       <c r="CU20" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="CV20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="CW20" t="n">
         <v>0</v>
@@ -7740,13 +7740,13 @@
         <v>0</v>
       </c>
       <c r="CZ20" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="DA20" t="n">
         <v>11</v>
       </c>
       <c r="DB20" t="n">
-        <v>45.833333333333</v>
+        <v>44</v>
       </c>
       <c r="DC20" t="n">
         <v>0</v>
@@ -7758,10 +7758,10 @@
         <v>0</v>
       </c>
       <c r="DF20" t="n">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="DG20" t="n">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="DH20" t="n">
         <v>0</v>
@@ -8509,16 +8509,16 @@
         <v>294377</v>
       </c>
       <c r="E23" t="n">
-        <v>7.2652173913043</v>
+        <v>7.3</v>
       </c>
       <c r="F23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H23" t="n">
-        <v>2070</v>
+        <v>2160</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -8573,10 +8573,10 @@
         <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.06859241000000001</v>
+        <v>0.06937719000000001</v>
       </c>
       <c r="AB23" t="n">
-        <v>895</v>
+        <v>933</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -8585,28 +8585,28 @@
         <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="AF23" t="n">
-        <v>68</v>
+        <v>67.20827178729699</v>
       </c>
       <c r="AG23" t="n">
-        <v>650</v>
+        <v>677</v>
       </c>
       <c r="AH23" t="n">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="AI23" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AJ23" t="n">
         <v>23</v>
       </c>
       <c r="AK23" t="n">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AL23" t="n">
-        <v>42.857142857143</v>
+        <v>42.175066312997</v>
       </c>
       <c r="AM23" t="n">
         <v>0</v>
@@ -8624,13 +8624,13 @@
         <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="AS23" t="n">
         <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -8669,7 +8669,7 @@
         <v>100</v>
       </c>
       <c r="BG23" t="n">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="BH23" t="n">
         <v>0</v>
@@ -8687,10 +8687,10 @@
         <v>0</v>
       </c>
       <c r="BM23" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="BN23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BO23" t="n">
         <v>28</v>
@@ -8699,16 +8699,16 @@
         <v>0</v>
       </c>
       <c r="BQ23" t="n">
-        <v>167.1</v>
+        <v>175.2</v>
       </c>
       <c r="BR23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BS23" t="n">
         <v>0</v>
       </c>
       <c r="BT23" t="n">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="BU23" t="n">
         <v>0</v>
@@ -8750,10 +8750,10 @@
         <v>5</v>
       </c>
       <c r="CH23" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="CI23" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="CJ23" t="n">
         <v>23</v>
@@ -8762,13 +8762,13 @@
         <v>5</v>
       </c>
       <c r="CL23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CM23" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="CN23" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="CO23" t="n">
         <v>15</v>
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="CZ23" t="n">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="DA23" t="n">
         <v>0</v>
@@ -8822,13 +8822,13 @@
         <v>20</v>
       </c>
       <c r="DF23" t="n">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="DG23" t="n">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="DH23" t="n">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="DI23" t="n">
         <v>0</v>
@@ -8842,7 +8842,7 @@
         </is>
       </c>
       <c r="DL23" t="n">
-        <v>4.8351</v>
+        <v>5.9441</v>
       </c>
     </row>
   </sheetData>

--- a/sofaplayer/La_Liga/Osasuna_stats.xlsx
+++ b/sofaplayer/La_Liga/Osasuna_stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DL23"/>
+  <dimension ref="A1:DL22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8148,26 +8148,26 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Iñigo Arguibide</t>
+          <t>Sergio Herrera</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1495856</v>
+        <v>294377</v>
       </c>
       <c r="E22" t="n">
-        <v>6.42</v>
+        <v>7.3</v>
       </c>
       <c r="F22" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="H22" t="n">
-        <v>183</v>
+        <v>2160</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -8219,629 +8219,275 @@
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.01597319</v>
+        <v>0.06937719000000001</v>
       </c>
       <c r="AB22" t="n">
-        <v>89</v>
+        <v>933</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE22" t="n">
+        <v>455</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>67.20827178729699</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>677</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>341</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>114</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>159</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>42.175066312997</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>190</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>33</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>90.90909090909101</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>80</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>100</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>231</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>87</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>6</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>28</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>175.2</v>
+      </c>
+      <c r="BR22" t="n">
         <v>24</v>
       </c>
-      <c r="AF22" t="n">
-        <v>63.157894736842</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>38</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ22" t="n">
+      <c r="BS22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT22" t="n">
+        <v>222</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC22" t="n">
+        <v>44</v>
+      </c>
+      <c r="CD22" t="n">
+        <v>30</v>
+      </c>
+      <c r="CE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG22" t="n">
         <v>5</v>
       </c>
-      <c r="AK22" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>18.181818181818</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN22" t="n">
+      <c r="CH22" t="n">
+        <v>50</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>37</v>
+      </c>
+      <c r="CJ22" t="n">
+        <v>23</v>
+      </c>
+      <c r="CK22" t="n">
+        <v>5</v>
+      </c>
+      <c r="CL22" t="n">
+        <v>12</v>
+      </c>
+      <c r="CM22" t="n">
+        <v>32</v>
+      </c>
+      <c r="CN22" t="n">
+        <v>32</v>
+      </c>
+      <c r="CO22" t="n">
+        <v>15</v>
+      </c>
+      <c r="CP22" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU22" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ22" t="n">
+        <v>377</v>
+      </c>
+      <c r="DA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE22" t="n">
         <v>20</v>
       </c>
-      <c r="AO22" t="n">
-        <v>2</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>3</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>8</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>6</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>25</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>3</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>30</v>
-      </c>
-      <c r="BE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG22" t="n">
-        <v>30</v>
-      </c>
-      <c r="BH22" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL22" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO22" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ22" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="BR22" t="n">
-        <v>5</v>
-      </c>
-      <c r="BS22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT22" t="n">
-        <v>14</v>
-      </c>
-      <c r="BU22" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB22" t="n">
-        <v>2</v>
-      </c>
-      <c r="CC22" t="n">
-        <v>4</v>
-      </c>
-      <c r="CD22" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK22" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR22" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS22" t="n">
-        <v>2</v>
-      </c>
-      <c r="CT22" t="n">
-        <v>5</v>
-      </c>
-      <c r="CU22" t="n">
-        <v>9</v>
-      </c>
-      <c r="CV22" t="n">
-        <v>2</v>
-      </c>
-      <c r="CW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ22" t="n">
-        <v>11</v>
-      </c>
-      <c r="DA22" t="n">
-        <v>3</v>
-      </c>
-      <c r="DB22" t="n">
-        <v>100</v>
-      </c>
-      <c r="DC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE22" t="n">
-        <v>0</v>
-      </c>
       <c r="DF22" t="n">
-        <v>17</v>
+        <v>387</v>
       </c>
       <c r="DG22" t="n">
-        <v>21</v>
+        <v>290</v>
       </c>
       <c r="DH22" t="n">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="DI22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DJ22" t="n">
-        <v>2469957</v>
+        <v>2156279</v>
       </c>
       <c r="DK22" t="inlineStr">
         <is>
           <t>overall</t>
         </is>
       </c>
-      <c r="DL22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>La_Liga</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Osasuna</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Sergio Herrera</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>294377</v>
-      </c>
-      <c r="E23" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="F23" t="n">
-        <v>24</v>
-      </c>
-      <c r="G23" t="n">
-        <v>24</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2160</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>0.06937719000000001</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>933</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>455</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>67.20827178729699</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>677</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>341</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>114</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>159</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>42.175066312997</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>190</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>33</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>10</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>90.90909090909101</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>4</v>
-      </c>
-      <c r="BD23" t="n">
-        <v>80</v>
-      </c>
-      <c r="BE23" t="n">
-        <v>6</v>
-      </c>
-      <c r="BF23" t="n">
-        <v>100</v>
-      </c>
-      <c r="BG23" t="n">
-        <v>231</v>
-      </c>
-      <c r="BH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI23" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK23" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM23" t="n">
-        <v>87</v>
-      </c>
-      <c r="BN23" t="n">
-        <v>6</v>
-      </c>
-      <c r="BO23" t="n">
-        <v>28</v>
-      </c>
-      <c r="BP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ23" t="n">
-        <v>175.2</v>
-      </c>
-      <c r="BR23" t="n">
-        <v>24</v>
-      </c>
-      <c r="BS23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT23" t="n">
-        <v>222</v>
-      </c>
-      <c r="BU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC23" t="n">
-        <v>44</v>
-      </c>
-      <c r="CD23" t="n">
-        <v>30</v>
-      </c>
-      <c r="CE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG23" t="n">
-        <v>5</v>
-      </c>
-      <c r="CH23" t="n">
-        <v>50</v>
-      </c>
-      <c r="CI23" t="n">
-        <v>37</v>
-      </c>
-      <c r="CJ23" t="n">
-        <v>23</v>
-      </c>
-      <c r="CK23" t="n">
-        <v>5</v>
-      </c>
-      <c r="CL23" t="n">
-        <v>12</v>
-      </c>
-      <c r="CM23" t="n">
-        <v>32</v>
-      </c>
-      <c r="CN23" t="n">
-        <v>32</v>
-      </c>
-      <c r="CO23" t="n">
-        <v>15</v>
-      </c>
-      <c r="CP23" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU23" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ23" t="n">
-        <v>377</v>
-      </c>
-      <c r="DA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE23" t="n">
-        <v>20</v>
-      </c>
-      <c r="DF23" t="n">
-        <v>387</v>
-      </c>
-      <c r="DG23" t="n">
-        <v>290</v>
-      </c>
-      <c r="DH23" t="n">
-        <v>207</v>
-      </c>
-      <c r="DI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ23" t="n">
-        <v>2156279</v>
-      </c>
-      <c r="DK23" t="inlineStr">
-        <is>
-          <t>overall</t>
-        </is>
-      </c>
-      <c r="DL23" t="n">
+      <c r="DL22" t="n">
         <v>5.9441</v>
       </c>
     </row>
